--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_9_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_9_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.170195546376977e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.162537198560373e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.000233071194531087</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.46564017196802</v>
+        <v>57.81930919823225</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[52.84078650593671, 62.090493837999325]</t>
+          <t>[52.99210135602885, 62.64651704043566]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 1.7547634641672722]</t>
+          <t>[1.5409213215805782, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.04036589612801</v>
+        <v>53.76112404611962</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.99555861520395, 55.08517317705207]</t>
+          <t>[50.56567228127581, 56.95657581096343]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.9422222222225</v>
+        <v>18.07407407407435</v>
       </c>
       <c r="X2" t="n">
-        <v>17.60000000000027</v>
+        <v>17.7321321321324</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.28444444444473</v>
+        <v>18.4160160160163</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.170195546376977e-16</v>
+        <v>1.162537198560373e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>60.84406640609932</v>
+        <v>56.41555854058123</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[54.37105610024706, 67.31707671195159]</t>
+          <t>[49.47358686502699, 63.35753021613547]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 0.786184347745194]</t>
+          <t>[0.45913165908319353, 0.685552751233808]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.57911620882162</v>
+        <v>54.03091523078979</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.16687961040788, 57.99135280723535]</t>
+          <t>[50.4505672488077, 57.61126321277189]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.32228228228254</v>
+        <v>21.66838838838865</v>
       </c>
       <c r="X3" t="n">
-        <v>20.89201201201227</v>
+        <v>21.2388388388391</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.75255255255282</v>
+        <v>22.0979379379382</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_9_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_9_square_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.162537198560373e-16</v>
+        <v>1.14900183661077e-16</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000233071194531087</v>
+        <v>0.0001022918107448367</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>57.81930919823225</v>
+        <v>55.86687193203298</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[52.99210135602885, 62.64651704043566]</t>
+          <t>[51.27059102756398, 60.463152836501976]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5409213215805782, 1.7170266154755023]</t>
+          <t>[1.4528686746331179, 1.6289739685280402]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.76112404611962</v>
+        <v>53.13969654918586</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.56567228127581, 56.95657581096343]</t>
+          <t>[50.04963249910147, 56.22976059927026]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.07407407407435</v>
+        <v>18.34054054054081</v>
       </c>
       <c r="X2" t="n">
-        <v>17.7321321321324</v>
+        <v>18.00000000000027</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.4160160160163</v>
+        <v>18.68108108108136</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,16 +663,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.162537198560373e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.14900183661077e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.781864124784988e-14</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.41555854058123</v>
+        <v>58.99113934616305</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.47358686502699, 63.35753021613547]</t>
+          <t>[52.400119544467856, 65.58215914785825]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 0.685552751233808]</t>
+          <t>[0.25786846606042335, 0.4842895582110396]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.975757666476511e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>5.975757666476511e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>54.03091523078979</v>
+        <v>55.66199711309554</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.4505672488077, 57.61126321277189]</t>
+          <t>[52.007834570275136, 59.31615965591595]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.66838838838865</v>
+        <v>22.3473473473476</v>
       </c>
       <c r="X3" t="n">
-        <v>21.2388388388391</v>
+        <v>21.91941941941967</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.0979379379382</v>
+        <v>22.77527527527554</v>
       </c>
     </row>
   </sheetData>
